--- a/comps2020-06-01.xlsx
+++ b/comps2020-06-01.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>MCK</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>SBAC</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>CAH</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>AZO</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>GOOG</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>LH</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANTM</t>
+          <t>ADS</t>
         </is>
       </c>
     </row>
